--- a/echo_server/banchmark/EchoServer.xlsx
+++ b/echo_server/banchmark/EchoServer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryues\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jiofrost\practice\echo_server\banchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF777E2-6374-4109-BD54-1D0DE8ED10D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D6376A-C06A-47CA-9A57-499ED3943F42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7FC817B1-F79D-439A-B0BC-4048D968F762}"/>
   </bookViews>
@@ -115,60 +115,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Echo Server</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -177,53 +128,43 @@
             <c:v>Wasm</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="65000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="plus"/>
+            <c:size val="4"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$12</c:f>
@@ -231,34 +172,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.49456499999999998</c:v>
+                  <c:v>1562.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52893500000000004</c:v>
+                  <c:v>1572.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52923699999999996</c:v>
+                  <c:v>1603.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53615100000000004</c:v>
+                  <c:v>1605.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53732500000000005</c:v>
+                  <c:v>1607.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54268700000000003</c:v>
+                  <c:v>1609.54</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54442800000000002</c:v>
+                  <c:v>1616.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54497700000000004</c:v>
+                  <c:v>1620.66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55493300000000001</c:v>
+                  <c:v>1628.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56792900000000002</c:v>
+                  <c:v>1788.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -270,42 +211,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1788.5</c:v>
+                  <c:v>0.56792900000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1572.48</c:v>
+                  <c:v>0.52893500000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1628.06</c:v>
+                  <c:v>0.53732500000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1607.48</c:v>
+                  <c:v>0.54268700000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1603.39</c:v>
+                  <c:v>0.53615100000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1605.65</c:v>
+                  <c:v>0.54442800000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1609.54</c:v>
+                  <c:v>0.54497700000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1616.92</c:v>
+                  <c:v>0.55493300000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1620.66</c:v>
+                  <c:v>0.52923699999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1562.83</c:v>
+                  <c:v>0.49456499999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BBF-4A34-9D05-B9EC13FE7620}"/>
+              <c16:uniqueId val="{00000000-F940-44CE-92CB-5C26FA19A33D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -316,53 +257,45 @@
             <c:v>Wasmless</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="65000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$12</c:f>
@@ -370,34 +303,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.34867300000000001</c:v>
+                  <c:v>2027.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35243999999999998</c:v>
+                  <c:v>2142.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.367064</c:v>
+                  <c:v>2188.9699999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37005399999999999</c:v>
+                  <c:v>2192.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37873299999999999</c:v>
+                  <c:v>2264.69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40553800000000001</c:v>
+                  <c:v>2280.5700000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47623199999999999</c:v>
+                  <c:v>2308.5300000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48395199999999999</c:v>
+                  <c:v>2325.4299999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50652699999999995</c:v>
+                  <c:v>2408.91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51812899999999995</c:v>
+                  <c:v>2426.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,252 +342,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2426.96</c:v>
+                  <c:v>0.48395199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2408.91</c:v>
+                  <c:v>0.50652699999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2280.5700000000002</c:v>
+                  <c:v>0.51812899999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2308.5300000000002</c:v>
+                  <c:v>0.47623199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2264.69</c:v>
+                  <c:v>0.37873299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2325.4299999999998</c:v>
+                  <c:v>0.367064</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2192.89</c:v>
+                  <c:v>0.37005399999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2027.28</c:v>
+                  <c:v>0.40553800000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2142.86</c:v>
+                  <c:v>0.35243999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2188.9699999999998</c:v>
+                  <c:v>0.34867300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8BBF-4A34-9D05-B9EC13FE7620}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Wasm avg</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.49456499999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52893500000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.52923699999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53615100000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.53732500000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.54268700000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.54442800000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.54497700000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.55493300000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.56792900000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$15:$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1621.5509999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1621.5509999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1621.5509999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1621.5509999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1621.5509999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1621.5509999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1621.5509999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1621.5509999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1621.5509999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1621.5509999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8BBF-4A34-9D05-B9EC13FE7620}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Wasmless avg</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.34867300000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35243999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.367064</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.37005399999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.37873299999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.40553800000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.47623199999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.48395199999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.50652699999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.51812899999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$15:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2256.7090000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2256.2089999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2256.2089999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2256.2089999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2256.2089999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2256.2089999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2256.2089999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2256.2089999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2256.2089999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2256.2089999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8BBF-4A34-9D05-B9EC13FE7620}"/>
+              <c16:uniqueId val="{00000002-F940-44CE-92CB-5C26FA19A33D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -666,14 +389,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1857437392"/>
-        <c:axId val="1857437808"/>
+        <c:axId val="1119962255"/>
+        <c:axId val="1119904847"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1857437392"/>
+        <c:axId val="1119962255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.34000000000000008"/>
+          <c:max val="2450"/>
+          <c:min val="1520"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -681,7 +405,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -698,9 +422,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -708,13 +435,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Avg.</a:t>
+                  <a:t>[requests</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t>latency (ms)</a:t>
+                  <a:t>/sec]</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -731,9 +465,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -752,9 +489,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -768,7 +505,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -778,16 +518,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1857437808"/>
+        <c:crossAx val="1119904847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2.0000000000000004E-2"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1857437808"/>
+        <c:axId val="1119904847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1500"/>
+          <c:min val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -795,7 +535,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -812,9 +552,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -823,12 +566,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Request</a:t>
+                  <a:t>Avg.Latency</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> / sec</a:t>
+                  <a:t>[ms]</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -845,9 +589,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -864,13 +611,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -881,7 +629,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -891,7 +642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1857437392"/>
+        <c:crossAx val="1119962255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -904,15 +655,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0350906706786953E-2"/>
+          <c:y val="4.0349483717235901E-2"/>
+          <c:w val="0.88486665113426177"/>
+          <c:h val="8.5059617221006426E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -928,7 +681,10 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -956,7 +712,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1024,29 +780,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1059,7 +821,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1067,7 +829,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1075,14 +837,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1091,8 +856,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1115,35 +881,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1155,19 +921,18 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -1176,10 +941,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1195,16 +960,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1214,22 +984,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1238,17 +1009,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1257,13 +1028,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1275,20 +1047,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1302,16 +1080,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1320,17 +1099,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1339,16 +1118,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1357,24 +1137,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1382,19 +1165,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1402,17 +1177,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1421,9 +1196,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1432,13 +1210,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1447,7 +1226,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1456,19 +1238,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1477,16 +1260,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1496,8 +1283,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1506,23 +1299,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>179926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>230221</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120423</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB3E3D1-2C4C-4F18-A027-8C704F158C28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BD7045-B6A0-43E2-9A5A-6C3FF5F409F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,265 +1635,265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C6F47F-6FE6-41BA-B1A1-CE265442EC49}">
   <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.49456499999999998</v>
+        <v>1562.83</v>
       </c>
       <c r="B3">
-        <v>1788.5</v>
+        <v>0.56792900000000002</v>
       </c>
       <c r="C3">
-        <v>0.34867300000000001</v>
+        <v>2027.28</v>
       </c>
       <c r="D3">
-        <v>2426.96</v>
+        <v>0.48395199999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>1572.48</v>
+      </c>
+      <c r="B4">
         <v>0.52893500000000004</v>
       </c>
-      <c r="B4">
-        <v>1572.48</v>
-      </c>
       <c r="C4">
-        <v>0.35243999999999998</v>
+        <v>2142.86</v>
       </c>
       <c r="D4">
-        <v>2408.91</v>
+        <v>0.50652699999999995</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.52923699999999996</v>
+        <v>1603.39</v>
       </c>
       <c r="B5">
-        <v>1628.06</v>
+        <v>0.53732500000000005</v>
       </c>
       <c r="C5">
-        <v>0.367064</v>
+        <v>2188.9699999999998</v>
       </c>
       <c r="D5">
-        <v>2280.5700000000002</v>
+        <v>0.51812899999999995</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.53615100000000004</v>
+        <v>1605.65</v>
       </c>
       <c r="B6">
-        <v>1607.48</v>
+        <v>0.54268700000000003</v>
       </c>
       <c r="C6">
-        <v>0.37005399999999999</v>
+        <v>2192.89</v>
       </c>
       <c r="D6">
-        <v>2308.5300000000002</v>
+        <v>0.47623199999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.53732500000000005</v>
+        <v>1607.48</v>
       </c>
       <c r="B7">
-        <v>1603.39</v>
+        <v>0.53615100000000004</v>
       </c>
       <c r="C7">
+        <v>2264.69</v>
+      </c>
+      <c r="D7">
         <v>0.37873299999999999</v>
-      </c>
-      <c r="D7">
-        <v>2264.69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.54268700000000003</v>
+        <v>1609.54</v>
       </c>
       <c r="B8">
-        <v>1605.65</v>
+        <v>0.54442800000000002</v>
       </c>
       <c r="C8">
-        <v>0.40553800000000001</v>
+        <v>2280.5700000000002</v>
       </c>
       <c r="D8">
-        <v>2325.4299999999998</v>
+        <v>0.367064</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.54442800000000002</v>
+        <v>1616.92</v>
       </c>
       <c r="B9">
-        <v>1609.54</v>
+        <v>0.54497700000000004</v>
       </c>
       <c r="C9">
-        <v>0.47623199999999999</v>
+        <v>2308.5300000000002</v>
       </c>
       <c r="D9">
-        <v>2192.89</v>
+        <v>0.37005399999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.54497700000000004</v>
+        <v>1620.66</v>
       </c>
       <c r="B10">
-        <v>1616.92</v>
+        <v>0.55493300000000001</v>
       </c>
       <c r="C10">
-        <v>0.48395199999999999</v>
+        <v>2325.4299999999998</v>
       </c>
       <c r="D10">
-        <v>2027.28</v>
+        <v>0.40553800000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.55493300000000001</v>
+        <v>1628.06</v>
       </c>
       <c r="B11">
-        <v>1620.66</v>
+        <v>0.52923699999999996</v>
       </c>
       <c r="C11">
-        <v>0.50652699999999995</v>
+        <v>2408.91</v>
       </c>
       <c r="D11">
-        <v>2142.86</v>
+        <v>0.35243999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.56792900000000002</v>
+        <v>1788.5</v>
       </c>
       <c r="B12">
-        <v>1562.83</v>
+        <v>0.49456499999999998</v>
       </c>
       <c r="C12">
-        <v>0.51812899999999995</v>
+        <v>2426.96</v>
       </c>
       <c r="D12">
-        <v>2188.9699999999998</v>
+        <v>0.34867300000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <f>AVERAGE(B3:B12)</f>
+      <c r="A15">
+        <f>AVERAGE(A3:A12)</f>
         <v>1621.5509999999999</v>
       </c>
-      <c r="D15">
-        <f>AVERAGE(D3:D12)</f>
-        <v>2256.7090000000003</v>
+      <c r="C15">
+        <f>AVERAGE(C3:C12)</f>
+        <v>2256.7089999999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16">
+      <c r="A16">
         <v>1621.5509999999999</v>
       </c>
-      <c r="D16">
+      <c r="C16">
         <v>2256.2089999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>1621.5509999999999</v>
       </c>
-      <c r="D17">
+      <c r="C17">
         <v>2256.2089999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>1621.5509999999999</v>
       </c>
-      <c r="D18">
+      <c r="C18">
         <v>2256.2089999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>1621.5509999999999</v>
       </c>
-      <c r="D19">
+      <c r="C19">
         <v>2256.2089999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>1621.5509999999999</v>
       </c>
-      <c r="D20">
+      <c r="C20">
         <v>2256.2089999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>1621.5509999999999</v>
       </c>
-      <c r="D21">
+      <c r="C21">
         <v>2256.2089999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>1621.5509999999999</v>
       </c>
-      <c r="D22">
+      <c r="C22">
         <v>2256.2089999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>1621.5509999999999</v>
       </c>
-      <c r="D23">
+      <c r="C23">
         <v>2256.2089999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>1621.5509999999999</v>
       </c>
-      <c r="D24">
+      <c r="C24">
         <v>2256.2089999999998</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:D12">
-    <sortCondition ref="C3:C12"/>
+    <sortCondition ref="C2:C12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
